--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.561</v>
+        <v>16.567</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.738</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.512</v>
+        <v>13.962</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.016</v>
+        <v>0.953</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.528602984297855</v>
+        <v>12.62396533554685</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.51212713065574</v>
+        <v>15.26453406876264</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.04596152603918</v>
+        <v>16.86211605925999</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.557325329798886</v>
+        <v>6.06167122178169</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.5959601588133</v>
+        <v>13.34869742869187</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.45655431768494</v>
+        <v>14.23602734232338</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.553388658548268</v>
+        <v>9.516962065065048</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.53238821432322</v>
+        <v>19.94799525682803</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.96417227737811</v>
+        <v>22.05883956791553</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.51739818784712</v>
+        <v>19.6035149853617</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.31610135011834</v>
+        <v>23.33346211992478</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.32541771994199</v>
+        <v>27.10627988973287</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.876982221306758</v>
+        <v>10.49866395158723</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.89516703226952</v>
+        <v>14.64312951662436</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20.19744162989436</v>
+        <v>17.67403373088768</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.93157320164097</v>
+        <v>12.507758260609</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.06251751309728</v>
+        <v>28.16486941674563</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.72366085877104</v>
+        <v>39.02651118283572</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.692511996832387</v>
+        <v>5.035155269698624</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.13440768874819</v>
+        <v>14.00208732817189</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.62262997576137</v>
+        <v>25.06417358368435</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.211067278301954</v>
+        <v>5.752205595219188</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.81787168574286</v>
+        <v>24.60598665652987</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.31496156803799</v>
+        <v>45.49023179266617</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.95160703286728</v>
+        <v>27.83606227603294</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.58408367640419</v>
+        <v>45.89236454502112</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.75844795207327</v>
+        <v>62.4781541754534</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.412341578897237</v>
+        <v>8.137346654858785</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.50611389229258</v>
+        <v>34.77384805092068</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>46.77072144386239</v>
+        <v>48.53504615118598</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.63777998501788</v>
+        <v>15.20119358878983</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.33449693272995</v>
+        <v>32.81534127677519</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.99685556903653</v>
+        <v>40.15402825144508</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.284315913720665</v>
+        <v>6.052014422194443</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.21061035932088</v>
+        <v>20.81899622750141</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.53424430187865</v>
+        <v>30.44303913064358</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.272105290445385</v>
+        <v>6.928338779227026</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.13506402656453</v>
+        <v>36.14030545321233</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>45.75218648592575</v>
+        <v>46.44906327614744</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.25227357462965</v>
+        <v>43.65987773060902</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.19162405210058</v>
+        <v>57.75701827816314</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>64.10043578682081</v>
+        <v>65.40834672451868</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>11.68408452447714</v>
+        <v>16.16164758333302</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.9093313046093</v>
+        <v>45.8426830620659</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.70888349204361</v>
+        <v>51.07979413426229</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.258374695037428</v>
+        <v>7.355759846161448</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.32545058881088</v>
+        <v>30.91033687599559</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.07825373596231</v>
+        <v>38.53576760317482</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.908754897095534</v>
+        <v>6.306187429662362</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.94817425203661</v>
+        <v>33.92083866451647</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.10679163111682</v>
+        <v>38.07179896966927</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.549845143685715</v>
+        <v>7.075340833933492</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55.48138335073256</v>
+        <v>55.32424790941812</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>61.08789740701621</v>
+        <v>61.25763337459057</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.81602138696115</v>
+        <v>51.43305377532546</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.74703789425803</v>
+        <v>58.73630100310248</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>53.55652698883083</v>
+        <v>53.28504751424443</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.445301552715318</v>
+        <v>8.02266488250779</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.53346519264696</v>
+        <v>37.56306338617065</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.90325306941804</v>
+        <v>47.11542861092447</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.38115632905847</v>
+        <v>8.111972655064019</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.6480359707293</v>
+        <v>35.08065638923549</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.60256765486889</v>
+        <v>39.97987521757133</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.542039676967082</v>
+        <v>4.739296215545867</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.90151293604083</v>
+        <v>20.93110964863896</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.27367410787619</v>
+        <v>29.88941037994257</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.824854253096873</v>
+        <v>5.530458641883669</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.8533607459517</v>
+        <v>39.82308922603212</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>49.52929120100779</v>
+        <v>49.05715356819201</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.7712717870571</v>
+        <v>40.89596472560459</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>53.19721363339193</v>
+        <v>56.87356142641279</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.92237477834404</v>
+        <v>63.15136817564184</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.510845655749566</v>
+        <v>6.376551743199386</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.28979266097765</v>
+        <v>45.71819403411653</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>50.96071297579157</v>
+        <v>50.90558111870587</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.395871532315468</v>
+        <v>8.303529847917101</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.68526138370522</v>
+        <v>36.72585335172308</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.25594452559949</v>
+        <v>43.24024030345825</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5.100710981911099</v>
+        <v>5.831876409092139</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.25286916822394</v>
+        <v>29.51675599673062</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.5651816094621</v>
+        <v>35.11440105038609</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.002604565028388</v>
+        <v>6.35685312820549</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>52.45844765531359</v>
+        <v>50.48696637780615</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>67.56593854992606</v>
+        <v>67.01845746022356</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>54.20917190934293</v>
+        <v>52.00697198862619</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>66.20011351401425</v>
+        <v>69.73600811201237</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73.13139635681385</v>
+        <v>74.11118262182954</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.328868290727666</v>
+        <v>7.089981991004908</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.79953894435734</v>
+        <v>55.17552462296047</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>61.20167009334789</v>
+        <v>61.57538151145687</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.95587953481849</v>
+        <v>18.81116587989094</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.72599356628159</v>
+        <v>28.2518591586434</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.21747827238626</v>
+        <v>35.28504055882409</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.122759518931183</v>
+        <v>5.537055392035679</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.85399379968532</v>
+        <v>30.12441106751276</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.14558444118579</v>
+        <v>32.21871928265965</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.81161442380051</v>
+        <v>7.806469367326407</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>51.19654458473141</v>
+        <v>54.55972829881408</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.75173215131075</v>
+        <v>54.52891763291746</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>39.42637283321427</v>
+        <v>41.05602442258131</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>47.61593160181036</v>
+        <v>48.63079885765308</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.01007035463236</v>
+        <v>46.96594291871077</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.71387476668481</v>
+        <v>15.2823907875239</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.98791996568362</v>
+        <v>31.26668279654901</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.96529054951389</v>
+        <v>34.98913351580773</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.77385855608448</v>
+        <v>23.26162971486776</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.03306890028337</v>
+        <v>38.55573209544534</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.49931620669533</v>
+        <v>40.89032516505448</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.662794140098981</v>
+        <v>6.026779975171433</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.47995784951639</v>
+        <v>27.71807695486884</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.03945441367523</v>
+        <v>31.71042796637227</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.358961634560675</v>
+        <v>7.767521329376109</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.36645636711933</v>
+        <v>48.57262904269791</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>53.40086762784043</v>
+        <v>52.04862645236091</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.2707647400901</v>
+        <v>47.19043984137173</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.94948143721261</v>
+        <v>59.10615659038873</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.56686014791314</v>
+        <v>62.84396506179831</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.22257583752503</v>
+        <v>21.1143003841627</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>44.83218083429142</v>
+        <v>46.17272364365952</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.09071753884883</v>
+        <v>52.66933495746635</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.6121657645362</v>
+        <v>22.43395803574493</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.63846153201564</v>
+        <v>38.60410808335772</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.79057027737655</v>
+        <v>42.09741477862972</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5.109630358971202</v>
+        <v>6.339818597618997</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.97917830522202</v>
+        <v>30.36314682209902</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.69591978515437</v>
+        <v>35.25682649451139</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.422988625199107</v>
+        <v>7.554716112738923</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.97714829829511</v>
+        <v>53.62801755923522</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>65.58989414373255</v>
+        <v>65.43214809477792</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.27608983621668</v>
+        <v>54.99587055640716</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>64.49799538868443</v>
+        <v>65.58699684924082</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>71.66649712770068</v>
+        <v>72.34891677227526</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.30362759028359</v>
+        <v>20.53207160433244</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>51.74894503568188</v>
+        <v>53.5079406234324</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.17541123293661</v>
+        <v>60.58038256433475</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.55650406811982</v>
+        <v>14.24496415375484</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.04572509689566</v>
+        <v>16.28520941784141</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.38460717994696</v>
+        <v>17.42903343954034</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.382803362025708</v>
+        <v>6.539807230617168</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.3259246904261</v>
+        <v>12.26433106707986</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>15.40451753463919</v>
+        <v>13.31430177605616</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.652679984037704</v>
+        <v>9.803207528483252</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.20079954162452</v>
+        <v>21.73038339563873</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.5802206367472</v>
+        <v>22.80634025926081</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.58546986038996</v>
+        <v>20.44133084204588</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>21.78144496199947</v>
+        <v>22.97012765920992</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.0041152532325</v>
+        <v>28.0543413303939</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>53.28743534684977</v>
+        <v>56.73544513305191</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>56.18835585352177</v>
+        <v>59.38542799094029</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.09940283169128</v>
+        <v>57.81031910490914</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.02335145549159</v>
+        <v>12.4670135951266</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.06327307132512</v>
+        <v>28.9637690318146</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.68879898901854</v>
+        <v>38.21474931443328</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.583913378198357</v>
+        <v>4.65758889039633</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.7513006020833</v>
+        <v>11.19471008969381</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.08573797266156</v>
+        <v>21.28017139199753</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4.186655440359267</v>
+        <v>6.14980758959128</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.87615936797348</v>
+        <v>24.55768927200096</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.52943950339427</v>
+        <v>42.73860227521092</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.92327208229054</v>
+        <v>26.01874523628777</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.17650080042011</v>
+        <v>42.89740400332393</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.71162993872584</v>
+        <v>55.80364312047682</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.202987672419958</v>
+        <v>8.486055261183761</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.15094149995724</v>
+        <v>33.65761434930662</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.73983591734134</v>
+        <v>40.86381329840994</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.27419263117912</v>
+        <v>22.42129068262347</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.16387159531541</v>
+        <v>31.71530423204895</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.65780385264885</v>
+        <v>38.58407466009508</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.8523344447701753</v>
+        <v>5.305944498460175</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>16.30490508134216</v>
+        <v>16.23119502088913</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.03200512755593</v>
+        <v>24.06740798368165</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>8.081958327497745</v>
+        <v>9.615266543374663</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.67813459001891</v>
+        <v>33.54272157971847</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.73886243350151</v>
+        <v>49.46088985801968</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.68950563717569</v>
+        <v>33.35625277034895</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.15211955589805</v>
+        <v>46.70673898594765</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.29123705029436</v>
+        <v>60.74964697606333</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.02215422872587</v>
+        <v>20.66606166043726</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.96002245353671</v>
+        <v>46.65838269262359</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.50048701943732</v>
+        <v>52.51488275401501</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.45507409359091</v>
+        <v>10.16378036383886</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.02723527859787</v>
+        <v>20.54052446358177</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.60540950249489</v>
+        <v>28.37901492226943</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.194521248483177</v>
+        <v>6.535791139142152</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.55398346336158</v>
+        <v>26.63163109380692</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.95741337605018</v>
+        <v>32.33520567925478</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.36721183541963</v>
+        <v>11.34961195348411</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>57.67676411595532</v>
+        <v>55.64898084232615</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.48465392518177</v>
+        <v>56.25344469544278</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.54100255204788</v>
+        <v>38.59452915968735</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.92607094360604</v>
+        <v>47.1637611765191</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.78583354587511</v>
+        <v>47.99879889377787</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.46127735178174</v>
+        <v>16.01529798787469</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.51987696195571</v>
+        <v>13.83300416434935</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.74669434987932</v>
+        <v>15.01307206358588</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.6401701275848</v>
+        <v>25.34394584229214</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.73961185549412</v>
+        <v>39.54841432275869</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>41.18463523088158</v>
+        <v>38.78546175826869</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.0482583176898</v>
+        <v>7.090071107759844</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.33772027540689</v>
+        <v>29.22889568213138</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.56271260961557</v>
+        <v>35.58748969455636</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.671019318739425</v>
+        <v>8.612140260449515</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>47.59419844440565</v>
+        <v>50.39651068030768</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>52.34837566813745</v>
+        <v>53.51417117069226</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>49.69625295136985</v>
+        <v>50.99991503116921</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>59.44556572472383</v>
+        <v>63.25569423379383</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.76206522830729</v>
+        <v>65.93336693255601</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.07863920077874</v>
+        <v>29.5327330864033</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>48.13942605846871</v>
+        <v>52.44810724925316</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>54.16873502646854</v>
+        <v>56.7210525283292</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.72178337071954</v>
+        <v>26.49176438066259</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>38.31756889167401</v>
+        <v>39.86026850922427</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.27477258415946</v>
+        <v>41.77409063806026</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>5.925922514424759</v>
+        <v>6.203504292017772</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.66359157113686</v>
+        <v>24.88812134022281</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.49484102149697</v>
+        <v>32.36127464233503</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.31938449220042</v>
+        <v>11.07387205123231</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.95859239339653</v>
+        <v>49.61142446964747</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>61.21526269558973</v>
+        <v>61.23420634812156</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>52.11494938272725</v>
+        <v>54.11535676287909</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>63.17757657128791</v>
+        <v>65.07989720808364</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>68.97878474072347</v>
+        <v>69.00142957869213</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.95818436457627</v>
+        <v>29.76968560105656</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>53.55793976509103</v>
+        <v>55.38203306072013</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>60.46899813490393</v>
+        <v>63.15053806579994</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10.17295510465113</v>
+        <v>8.78891186074841</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.12182986228609</v>
+        <v>19.67891135957894</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.1347833032982</v>
+        <v>30.98531651431382</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.477742393121559</v>
+        <v>6.052134427186047</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.41895890401719</v>
+        <v>35.24003678504283</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.83884469542991</v>
+        <v>34.84604454531716</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>12.97306454118771</v>
+        <v>10.47618827873194</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>58.52711903998444</v>
+        <v>59.17503974395885</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.95549438941988</v>
+        <v>60.32381177240607</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.23293066225392</v>
+        <v>40.00384939004617</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>48.74603965365786</v>
+        <v>49.47463310399237</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.63756713073579</v>
+        <v>50.49132466505633</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>11.74990288245091</v>
+        <v>11.61591182153669</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.91107769934714</v>
+        <v>11.48780398931223</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>11.92320955104463</v>
+        <v>12.365868356735</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.16136213108642</v>
+        <v>19.21713127910498</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.54826362086578</v>
+        <v>42.01933584934179</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.92627754476292</v>
+        <v>42.79277267443827</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.404772508297956</v>
+        <v>6.46454984525726</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.60727340424498</v>
+        <v>34.51230960217525</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.35933746530718</v>
+        <v>41.13231922249922</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>8.712492837670521</v>
+        <v>7.00675225829314</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>55.03862046813039</v>
+        <v>57.43892270960487</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>57.04627464556688</v>
+        <v>59.31294256553349</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>50.27734050335913</v>
+        <v>47.805247276892</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>60.11640062304273</v>
+        <v>61.20789739166079</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>64.23560066584537</v>
+        <v>67.30001161074328</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18.87948641832828</v>
+        <v>17.45938447339118</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>55.65583218759788</v>
+        <v>56.26504137257383</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>58.8306777178869</v>
+        <v>60.30093366840968</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.50579962057393</v>
+        <v>21.91831257291074</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.61871326290915</v>
+        <v>42.55913619444149</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.60935944940441</v>
+        <v>43.96505824884142</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.584532103604264</v>
+        <v>6.594685365556124</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.81132160871724</v>
+        <v>31.53795733469382</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.57130442992042</v>
+        <v>34.41478531554804</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.13401508496148</v>
+        <v>8.823434098879829</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>53.67808572350073</v>
+        <v>55.24979408236129</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>64.44391645475045</v>
+        <v>64.50490313371495</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>56.50595243493875</v>
+        <v>57.14879539327788</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.14549062716691</v>
+        <v>69.29186876648487</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>72.04657226607301</v>
+        <v>73.26245717320478</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>16.90490033253879</v>
+        <v>16.03873721622659</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>57.71905367166095</v>
+        <v>58.68502972729483</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>63.39050440353903</v>
+        <v>63.60951066865314</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.83042613100033</v>
+        <v>10.98739626500758</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.28415771672675</v>
+        <v>11.09716822830576</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.916890810088</v>
+        <v>12.65085200533047</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1.731393201667359</v>
+        <v>5.913464591790799</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.43083381263635</v>
+        <v>11.82856244408962</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>13.82212912048624</v>
+        <v>11.89720309996832</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.564931073777764</v>
+        <v>8.874594101596525</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.0022594564247</v>
+        <v>17.78144738433533</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.16776945455309</v>
+        <v>20.01053021776405</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.38630697323396</v>
+        <v>22.86473564521708</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.89617442226652</v>
+        <v>26.70171405489726</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.32736308214793</v>
+        <v>29.37921569495131</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.040892031207413</v>
+        <v>9.83705959102755</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.246705909400596</v>
+        <v>11.01756157680565</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.41501427476981</v>
+        <v>13.86926004540055</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.54116948849228</v>
+        <v>12.56541702438318</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.11653629681615</v>
+        <v>28.18051582523138</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.62931990582969</v>
+        <v>33.00955252604139</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.250377202371503</v>
+        <v>6.444344179994836</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>18.81804332263799</v>
+        <v>17.96808750240018</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.48327606360588</v>
+        <v>27.12576418512931</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.612751677854515</v>
+        <v>9.370347443022375</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.77058071739753</v>
+        <v>32.01880003703224</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.82451457628245</v>
+        <v>43.2336150928794</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.52929937798491</v>
+        <v>32.70191598750703</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>41.18366784093965</v>
+        <v>44.45576098494115</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.60157909475998</v>
+        <v>49.67227746948146</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10.00174043224973</v>
+        <v>10.83920143345834</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.53262013098866</v>
+        <v>36.36494478387972</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>39.30050392991673</v>
+        <v>43.61954748634926</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>11.56814625026414</v>
+        <v>12.65933378079158</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.71974920857877</v>
+        <v>27.1430511900283</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.03115486900529</v>
+        <v>36.65645900111884</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3.796871381291201</v>
+        <v>5.616985619689942</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.61421597846494</v>
+        <v>22.65353479184573</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.08173503506515</v>
+        <v>29.77157012270222</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>7.20488207395282</v>
+        <v>8.89439306864957</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.696578708972</v>
+        <v>39.29792460574259</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.33595151909415</v>
+        <v>49.16035082012648</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.87405436858221</v>
+        <v>48.36752677374692</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.45467657163596</v>
+        <v>61.47683654505599</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>61.40007224973785</v>
+        <v>62.33553373620741</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.14473866223551</v>
+        <v>12.50653589563584</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>44.29169354712818</v>
+        <v>46.26056619022505</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>54.06691593681627</v>
+        <v>55.4414440692242</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>5.270454207859572</v>
+        <v>7.077697624401434</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>8.456252348450484</v>
+        <v>12.70373361835797</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.80042861085948</v>
+        <v>14.25902913444894</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1.343640497464587</v>
+        <v>5.506923301004466</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.00277001118879</v>
+        <v>11.83721329738214</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.66314659973398</v>
+        <v>15.44694083105955</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>3.245634718483817</v>
+        <v>6.134037527356409</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.79703457459689</v>
+        <v>15.50495052765036</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.82434235079474</v>
+        <v>13.36959185923277</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.14827987734381</v>
+        <v>14.11702752244121</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.74862409908137</v>
+        <v>15.87984834175787</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.31811213873773</v>
+        <v>16.37650595429512</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.756709618027106</v>
+        <v>9.577864007669753</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>11.67541454932676</v>
+        <v>14.49549229515679</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.50311764102384</v>
+        <v>15.47211727396126</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>6.25399696834214</v>
+        <v>5.442079526720924</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.76286336973679</v>
+        <v>9.376426353259834</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.17656704544978</v>
+        <v>19.82602846794344</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2.081510161601873</v>
+        <v>5.463691836239327</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7.105236150077928</v>
+        <v>6.232066609340045</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.15486229216843</v>
+        <v>13.38544370727929</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>3.415398781070909</v>
+        <v>6.980666452905339</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>8.841655507491069</v>
+        <v>9.13569965756659</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.00939825267465</v>
+        <v>25.00042891405122</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>8.203256671058551</v>
+        <v>10.45775525533208</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.56835620734507</v>
+        <v>25.2114911435596</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.26899003729567</v>
+        <v>40.03178376755371</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1.046455751992845</v>
+        <v>5.448188909692725</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.59209749658084</v>
+        <v>12.63262403842174</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.84775930962623</v>
+        <v>14.13443155926452</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3.31309176105437</v>
+        <v>4.835371762161248</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.41218196715856</v>
+        <v>11.45642509454519</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.66419958032014</v>
+        <v>25.23811173431189</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.03726212687203656</v>
+        <v>5.464015700449515</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>7.293600744581276</v>
+        <v>8.497778708497368</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.9400941909539</v>
+        <v>20.58131715916314</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.335002707744273</v>
+        <v>6.04422529663702</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>10.33833655549262</v>
+        <v>12.58941663463914</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.24893536608673</v>
+        <v>37.24687397274022</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.53488644319762</v>
+        <v>16.41099106159749</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.1711944974799</v>
+        <v>43.7801843586296</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.8286012802055</v>
+        <v>56.424404284939</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-0.5462971405891075</v>
+        <v>4.662274392291049</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.16158846565791</v>
+        <v>12.25220134511735</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.66541445441487</v>
+        <v>19.28872812132037</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.88875212489966</v>
+        <v>15.18437976930501</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.55783844083708</v>
+        <v>18.90198347733498</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.87505354029551</v>
+        <v>36.44115137058098</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.922559794257847</v>
+        <v>6.710671551532837</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.89200715173186</v>
+        <v>40.20444552167358</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.25527878592652</v>
+        <v>41.1497047583561</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.5898861879097</v>
+        <v>10.40846420927731</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>54.61530752281575</v>
+        <v>57.19058987552997</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>59.80306015432084</v>
+        <v>61.14941373538761</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.97068136499881</v>
+        <v>44.05596440429539</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>47.62187152996338</v>
+        <v>48.86359384423587</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>48.36535866885174</v>
+        <v>49.53756971914316</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.19881512725611</v>
+        <v>27.59156750735668</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.9728671337718</v>
+        <v>36.79898264820341</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>60.80910506225268</v>
+        <v>63.83173279857829</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.05184416038978</v>
+        <v>12.08749842209197</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.83281636077282</v>
+        <v>31.35918742195529</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.77063281172321</v>
+        <v>33.18967600721715</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.651437752936516</v>
+        <v>5.874152188895373</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.63943608138317</v>
+        <v>27.06842336156182</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.93725171024747</v>
+        <v>29.6091478326629</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7.743384208455339</v>
+        <v>8.834804223951554</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.98997113620243</v>
+        <v>43.21654843639178</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.92578687602507</v>
+        <v>45.72848080449413</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.90676351173705</v>
+        <v>39.10929654697321</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.06916937622394</v>
+        <v>48.65243579552605</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.95234763012291</v>
+        <v>51.83533416161345</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.29363606479365</v>
+        <v>20.53207836615285</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.4271853892037</v>
+        <v>42.13882277749463</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>46.77431666137296</v>
+        <v>46.23688827126951</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.43266673208161</v>
+        <v>16.80109536661564</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>31.00546302571647</v>
+        <v>30.11079297209385</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.89003130832702</v>
+        <v>40.67615723692812</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>6.762382150932126</v>
+        <v>6.034775702815253</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.07283598683424</v>
+        <v>32.34520573595473</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.85945675174345</v>
+        <v>36.69409677536489</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.25318280750247</v>
+        <v>10.24821689271353</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>49.002331801381</v>
+        <v>50.68522216190316</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.12295533223055</v>
+        <v>64.003632043122</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.23537053050359</v>
+        <v>50.47847311291095</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.13242410529892</v>
+        <v>61.36707752486987</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>65.86236227045596</v>
+        <v>65.33724931739447</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.84745909858413</v>
+        <v>20.10798489241948</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.11016894533446</v>
+        <v>53.16315404764104</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>62.8623876507128</v>
+        <v>63.31300011801851</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.154246764707395</v>
+        <v>11.35922591551531</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.86315141012697</v>
+        <v>11.73245253825989</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.54041516426509</v>
+        <v>13.77399263591196</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.601838340368055</v>
+        <v>6.358534315317229</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.813536218777429</v>
+        <v>9.800642634292789</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.87949973526258</v>
+        <v>12.45478704605269</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>5.152070127717298</v>
+        <v>9.590956915150297</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.8351331411964</v>
+        <v>15.37673554303873</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.61499085782916</v>
+        <v>17.19994310071071</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>15.27524966391806</v>
+        <v>15.11842686308395</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>18.03870594065587</v>
+        <v>17.65159183485497</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.98151540840716</v>
+        <v>20.03890717316057</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>6.724085305842241</v>
+        <v>9.724163003055434</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>7.547949580546202</v>
+        <v>10.95651427813871</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.88799877765355</v>
+        <v>13.48646648596898</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.196479804164557</v>
+        <v>7.988583710536282</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.20578774850799</v>
+        <v>16.70106421401005</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.75188998953275</v>
+        <v>27.59905542160405</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1.962585584070929</v>
+        <v>4.662473200555706</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.243704460393037</v>
+        <v>7.956054129271621</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.47367576372493</v>
+        <v>21.3238080139235</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1.330271624644809</v>
+        <v>6.411553421399326</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.90522231471861</v>
+        <v>12.22042830958459</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.21430343821867</v>
+        <v>32.18021130190633</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>14.25648021897591</v>
+        <v>15.56063342805754</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.47852482942256</v>
+        <v>25.47287063701906</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.9405715432347</v>
+        <v>37.73574477432997</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.498359410607275</v>
+        <v>4.980252860271893</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.49771079935599</v>
+        <v>18.08268556750823</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.83337715612099</v>
+        <v>26.11919117722323</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.36363018068315</v>
+        <v>12.4447679526262</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.31642005234897</v>
+        <v>21.73154005715827</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.46077495069412</v>
+        <v>32.56349449849955</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2.862887327877935</v>
+        <v>5.897556260505148</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>12.19811282221437</v>
+        <v>13.82280784557246</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.99004801326354</v>
+        <v>25.10687253163813</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.413437252188725</v>
+        <v>11.20969106496226</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.17209924734037</v>
+        <v>23.59527365400288</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.05224854526622</v>
+        <v>40.90395283290405</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.48444572521532</v>
+        <v>25.92441343710284</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>33.82423514851609</v>
+        <v>33.03292296087856</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>49.72417079909749</v>
+        <v>51.33185703062934</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.32339736548998</v>
+        <v>17.47017376289433</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.00367138375955</v>
+        <v>28.96339713608825</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.67122931164546</v>
+        <v>39.77706922557663</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.143194198471136</v>
+        <v>4.662505927682915</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2.132845813982648</v>
+        <v>5.633213350569868</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.589015315542017</v>
+        <v>9.943338640783246</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.1802637399835838</v>
+        <v>5.463796498220578</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>4.569484301444174</v>
+        <v>5.50961249211387</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>6.628754178761898</v>
+        <v>6.53996751954347</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.973335011063618</v>
+        <v>9.344548052496258</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.58784897335331</v>
+        <v>10.39424398116421</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.89687542403876</v>
+        <v>10.71439826231036</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.986999471330481</v>
+        <v>6.212413172393003</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.126705641585133</v>
+        <v>6.378536182132777</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.00250936971672</v>
+        <v>16.1368888202253</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>2.495239437166322</v>
+        <v>5.445205724090105</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.8453172239257327</v>
+        <v>4.662660924689394</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>3.522574280477848</v>
+        <v>4.651584536320456</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.96047645547374</v>
+        <v>18.87079885808351</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.82048517484717</v>
+        <v>31.11184846965946</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.03013539368003</v>
+        <v>34.06961142087572</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>7.74386960770487</v>
+        <v>6.649091720787489</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.74037897013255</v>
+        <v>23.2178277301578</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.01773162737446</v>
+        <v>28.4079481860293</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.30851134814232</v>
+        <v>10.33428545765691</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.67850102368632</v>
+        <v>44.39483924679601</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.06693507450483</v>
+        <v>48.80171775338052</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.20824243095957</v>
+        <v>40.06465545425048</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.87200808877824</v>
+        <v>49.28220727038352</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.61168307170534</v>
+        <v>48.76896353881313</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>15.89560906983364</v>
+        <v>18.42615596506474</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>38.48727003964646</v>
+        <v>40.06619689219917</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.74474572542559</v>
+        <v>46.74746592094608</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.5075098440937</v>
+        <v>19.80923911436303</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.29391896074247</v>
+        <v>33.80147029095091</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.52993741865544</v>
+        <v>44.02015494535556</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>4.673581121060455</v>
+        <v>5.892456648550105</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.46926366736181</v>
+        <v>27.50937033597945</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.84410838807126</v>
+        <v>32.23802530724732</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>8.71881587992419</v>
+        <v>9.631463358789041</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>46.81269226232469</v>
+        <v>47.98347346554673</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.73640240440123</v>
+        <v>58.33294530073334</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>51.13919150243341</v>
+        <v>52.2993731028379</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>59.22351556445587</v>
+        <v>62.49028759711911</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.41645031084985</v>
+        <v>66.10681296706184</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.97495074784679</v>
+        <v>14.37939004008256</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>48.87459147723851</v>
+        <v>50.44483968894447</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>54.69416915602754</v>
+        <v>55.571084838395</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.2239227930122</v>
+        <v>14.51074533086273</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.39696023012259</v>
+        <v>15.87762515177157</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.66027470744898</v>
+        <v>16.31944694757556</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.220780453414189</v>
+        <v>7.769880220517571</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.78353400591317</v>
+        <v>15.88780008291108</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.03029145825346</v>
+        <v>16.39759343212501</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.40377038784764</v>
+        <v>14.72585943795517</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.38443505075452</v>
+        <v>23.80716727915373</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.26264867126782</v>
+        <v>23.12653783478608</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.48779027921804</v>
+        <v>20.72058115863096</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.92705935524301</v>
+        <v>24.69600462303505</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.6611402600115</v>
+        <v>27.49041571025133</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.77368926722818</v>
+        <v>17.16661236612257</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.821858142854</v>
+        <v>14.0208164286754</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.20857114667384</v>
+        <v>17.54593804798613</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>6.039048255764659</v>
+        <v>6.07973000082918</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.89183186849747</v>
+        <v>13.17371312489207</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>19.48986120630266</v>
+        <v>21.89625009178868</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.1184415903014369</v>
+        <v>4.974843455686212</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>5.541999993802417</v>
+        <v>6.895958847789938</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.19139032214642</v>
+        <v>16.09867247299988</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>0.123414723081364</v>
+        <v>4.680742062283478</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>9.445153022571823</v>
+        <v>9.886481601023462</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.60916930594988</v>
+        <v>23.5563313973423</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>11.84321536883419</v>
+        <v>13.28073953757197</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.59367344494154</v>
+        <v>19.42191916114</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.12767235165232</v>
+        <v>29.72501030515216</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>2.432482373565627</v>
+        <v>5.228252740304672</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>12.76371984322697</v>
+        <v>12.97899171404032</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.3212577750073</v>
+        <v>19.21805567664203</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.9308888503774</v>
+        <v>18.10516688808897</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.32511255512376</v>
+        <v>27.44516381557851</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.96033656648194</v>
+        <v>31.14604530359276</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.92788046712483</v>
+        <v>5.780437671305812</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14.37452543102721</v>
+        <v>17.98045992377147</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.09013354683802</v>
+        <v>21.80386545679063</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.099102970279421</v>
+        <v>10.07749931130606</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.54740054776583</v>
+        <v>31.19095043465887</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.9933406776228</v>
+        <v>43.45146431926216</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.04784639461978</v>
+        <v>32.93002102731051</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.45087671422191</v>
+        <v>37.96569878551291</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>48.18747389474129</v>
+        <v>49.07662559548792</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.43800754006459</v>
+        <v>14.07897713751771</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.07243223228536</v>
+        <v>31.79866948742412</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.77957866858686</v>
+        <v>36.03987052934952</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.414824655168882</v>
+        <v>5.46420364411458</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.630718077622603</v>
+        <v>7.959528787425171</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.560670982362613</v>
+        <v>7.99314266336965</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.032979049615115</v>
+        <v>5.268921574859</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.443428570900586</v>
+        <v>6.88692868418056</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>7.369152737940134</v>
+        <v>7.320306245076715</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.952876163282824</v>
+        <v>9.546867341070822</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.44988160716949</v>
+        <v>11.20586150225891</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.49835416198448</v>
+        <v>10.53256259766131</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.972646017328739</v>
+        <v>7.384562833166914</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.435265339027868</v>
+        <v>6.503990604504828</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.83812551923282</v>
+        <v>10.76887465241983</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.998284313997733</v>
+        <v>6.306127359352015</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>4.069235518626769</v>
+        <v>7.355762182979092</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>7.460733807697917</v>
+        <v>8.181721597585092</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.317897124515284</v>
+        <v>5.639490532491692</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.439936051987935</v>
+        <v>7.362944959271882</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.270127000445655</v>
+        <v>7.71354419375032</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.6954177674269246</v>
+        <v>5.463775090687868</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.293385981402263</v>
+        <v>4.931932821950678</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>5.463519222101045</v>
+        <v>7.121270061156338</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.9549942629336705</v>
+        <v>5.824292873879063</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>2.733798607430394</v>
+        <v>6.124511328503196</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.732467844434879</v>
+        <v>8.269297615309632</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.680140782262914</v>
+        <v>5.214169121573669</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>7.616466950902971</v>
+        <v>6.972371168973815</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.234097051413087</v>
+        <v>7.954239270062903</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>0.05861957314196786</v>
+        <v>5.463725924282741</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>4.12167242306985</v>
+        <v>6.234702877285127</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.089086137955395</v>
+        <v>6.628769084914374</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.95105103699728</v>
+        <v>19.62944643024441</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.87229896872642</v>
+        <v>22.74881073098206</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.05685673310811</v>
+        <v>22.87338885781657</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.710126371624764</v>
+        <v>6.777167926094243</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>11.46512304026108</v>
+        <v>13.19120569404279</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.40812216085824</v>
+        <v>15.72394491988791</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>9.823989382254176</v>
+        <v>12.54597198772135</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.71041196088954</v>
+        <v>24.6418424766658</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.25546823887985</v>
+        <v>28.04079725709115</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.10990977505151</v>
+        <v>24.97242586429771</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.72705976046731</v>
+        <v>27.63632369997821</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.6201916730467</v>
+        <v>30.33246363959995</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.70075443239483</v>
+        <v>19.2346594325248</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.26410392563476</v>
+        <v>23.8018813099243</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.55024652770645</v>
+        <v>26.73219221413085</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.87107787947538</v>
+        <v>18.33437840447489</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.67942293298669</v>
+        <v>29.0334692985807</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.06995306452922</v>
+        <v>36.60420491832954</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.877541661482667</v>
+        <v>6.094714823035307</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.80066096583966</v>
+        <v>18.91448197969829</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.95742979215153</v>
+        <v>22.92683070338669</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.40470902021607</v>
+        <v>12.86132771517065</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.51416074300659</v>
+        <v>38.96459431279307</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.60751401885947</v>
+        <v>43.54174020213093</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.10600125576006</v>
+        <v>35.91176573453542</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.6627555333557</v>
+        <v>41.50171570207706</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>41.96391845758852</v>
+        <v>43.54258929667148</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.83871380608482</v>
+        <v>26.47924764986279</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.60763929352985</v>
+        <v>43.08640536499104</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>46.75803545760753</v>
+        <v>47.32885774658937</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.82007282947811</v>
+        <v>16.81549555758477</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.05391524780287</v>
+        <v>26.63459655970351</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.17325417741079</v>
+        <v>30.55401076929808</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>1.688988948197874</v>
+        <v>6.279666263013503</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.34829672170445</v>
+        <v>10.94482381873745</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.4069105936084</v>
+        <v>13.98362860093113</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.31265476379901</v>
+        <v>10.39154292705005</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.37983678145189</v>
+        <v>24.10433245253192</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.46540752014932</v>
+        <v>28.41723317682433</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.43999573143061</v>
+        <v>22.79413833690608</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.56863794551743</v>
+        <v>28.79639695941448</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.21509087485116</v>
+        <v>31.2079975242584</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.48814589465829</v>
+        <v>17.07825332827335</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.36564712396171</v>
+        <v>29.45078990039344</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.95043649377195</v>
+        <v>32.67527366048093</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.60044160993851</v>
+        <v>21.62663060465044</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.12894522041121</v>
+        <v>31.99126410549745</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.24382636997181</v>
+        <v>41.80862183239661</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.761122338742162</v>
+        <v>5.812550739492735</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.14650051095474</v>
+        <v>18.57685789436379</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.42859454415029</v>
+        <v>21.96795149971942</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>9.636461981014556</v>
+        <v>13.03694745170721</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.90152245620713</v>
+        <v>37.33349085540388</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>44.56275895227618</v>
+        <v>46.18037012466242</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>43.38988295356289</v>
+        <v>45.44865665858201</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>50.06723702136399</v>
+        <v>51.61417417330541</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>53.30198161038376</v>
+        <v>53.65843883188523</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.40080600922834</v>
+        <v>24.66160677977239</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.36699917853683</v>
+        <v>42.94036539388635</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>45.21131051305389</v>
+        <v>46.21154762955803</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.63921684065429</v>
+        <v>17.8008442706497</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.99474882631118</v>
+        <v>29.27103224347735</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.02011152570694</v>
+        <v>37.0070935724036</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.126107728808257</v>
+        <v>6.950449070554139</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.92254013005289</v>
+        <v>31.33486218603435</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.46617200849212</v>
+        <v>35.26048311895646</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.71527706070225</v>
+        <v>12.20275075791214</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>52.29712414887293</v>
+        <v>51.83865332940438</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>55.9099101956528</v>
+        <v>58.55361487490016</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>47.94422863526628</v>
+        <v>49.2535358721026</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.07476897641054</v>
+        <v>53.11752983188669</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>54.74928209091478</v>
+        <v>56.95771457584559</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.70241200296897</v>
+        <v>16.6157014592021</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.6933065501824</v>
+        <v>36.8483407142095</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>47.16508478583174</v>
+        <v>47.57373627118255</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.55155514942855</v>
+        <v>13.01487968636461</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.79873225767792</v>
+        <v>31.21232215735248</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.18724503898937</v>
+        <v>34.94442544660673</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.31652106742559</v>
+        <v>5.847009281195568</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.31788152645304</v>
+        <v>21.62235506487345</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.07888899699344</v>
+        <v>29.01132551410985</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.662060700984988</v>
+        <v>7.259682011137823</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.12491835482734</v>
+        <v>38.36934324706944</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.56044764372413</v>
+        <v>42.90720846708236</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.01819578983121</v>
+        <v>38.40825957136839</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.27405770683932</v>
+        <v>46.89774366467633</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.79195948258332</v>
+        <v>50.58227542998803</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>9.56904918037359</v>
+        <v>10.70432269636992</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.59676807198348</v>
+        <v>35.73868952983835</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.40071283239664</v>
+        <v>43.47500639922661</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.11241208260841</v>
+        <v>10.88952098899523</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.59312816901625</v>
+        <v>28.9248157482123</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.96147208881988</v>
+        <v>36.96935255833124</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>4.072280653078966</v>
+        <v>4.991123991176501</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.39135742620303</v>
+        <v>22.67269194503106</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.59102918405272</v>
+        <v>33.69432073167231</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>5.567691599781369</v>
+        <v>6.63529639554406</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.59748551130045</v>
+        <v>37.81820230298877</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.81982700349977</v>
+        <v>56.41078553122734</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.64159547896801</v>
+        <v>45.1787805216649</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.35473230979115</v>
+        <v>57.13805192244293</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.99242381165195</v>
+        <v>67.29871656666707</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>7.671715821550578</v>
+        <v>8.895754424947263</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.30865671841403</v>
+        <v>44.09070414138032</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>52.43664163392471</v>
+        <v>55.40311402035898</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.48593951420367</v>
+        <v>12.96529823656966</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.03810930685599</v>
+        <v>22.00940614547552</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.9300410114983</v>
+        <v>35.36272717210094</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.659969178931121</v>
+        <v>6.28944892890658</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.62639512586311</v>
+        <v>39.4903296886362</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.82221190036349</v>
+        <v>44.13907294726954</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.34390170359222</v>
+        <v>10.11843941260221</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>60.19867888702512</v>
+        <v>59.90451699114089</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>60.4464907247492</v>
+        <v>61.03460726694919</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.81378999167307</v>
+        <v>47.45837380142896</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.48306794944892</v>
+        <v>47.177684170462</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>47.99849228625524</v>
+        <v>48.70641051453158</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.6770793877008</v>
+        <v>12.90035826193443</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.2224063279741</v>
+        <v>29.98302931948417</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>61.66584317671095</v>
+        <v>60.56477030153478</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>17.71772540027308</v>
+        <v>17.65736204288644</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.57689865785899</v>
+        <v>33.07458568165229</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.7987377014742</v>
+        <v>35.16346470230523</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>4.286656651711464</v>
+        <v>6.372824024411361</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.01764816762818</v>
+        <v>25.16313438784727</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.12643904638324</v>
+        <v>28.41522018970491</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>4.261738394200723</v>
+        <v>8.02607961767783</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.85757802348954</v>
+        <v>39.79053074059189</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.68272295143492</v>
+        <v>42.62759408666621</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.85031337574469</v>
+        <v>37.73965442523843</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.79899684290947</v>
+        <v>45.27782378542904</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>50.92965641298333</v>
+        <v>49.31143344362535</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.23801600134789</v>
+        <v>13.02234986535005</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.90758849989363</v>
+        <v>36.43894136931491</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.79604259571688</v>
+        <v>42.74164822677152</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.34374533551861</v>
+        <v>14.50857799940401</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.51364268733715</v>
+        <v>30.19631408224826</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.56235616604384</v>
+        <v>37.52750613437413</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.808431583662681</v>
+        <v>6.299240944836459</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.03843519155219</v>
+        <v>28.51245732509195</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.25163997018922</v>
+        <v>33.96872781490443</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>7.225582853226001</v>
+        <v>8.397546940259435</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.16266869044864</v>
+        <v>45.13417898556065</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>56.75431807947045</v>
+        <v>56.64763857870767</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.98225447009278</v>
+        <v>51.66012027295839</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>58.11435324007559</v>
+        <v>60.71236084683414</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>67.14255237337534</v>
+        <v>67.36655654467019</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>9.278586814028507</v>
+        <v>10.72631301347214</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>41.54352292520107</v>
+        <v>46.38875530947107</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>52.76831398070296</v>
+        <v>56.52345625124421</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.28344004978186</v>
+        <v>21.69395743820857</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.09133091322693</v>
+        <v>23.10449672531321</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.85207687507291</v>
+        <v>36.58551869077305</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.01160171880586</v>
+        <v>12.23696836410836</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>45.35763273729533</v>
+        <v>47.0745861996235</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.58879199051881</v>
+        <v>50.89381206091589</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.21643268902665</v>
+        <v>14.5805496873296</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.92436366020415</v>
+        <v>58.74121893774866</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>63.71193110774006</v>
+        <v>62.94440888801712</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>43.53197240922434</v>
+        <v>44.97576398297576</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>44.34059564496334</v>
+        <v>45.77590831559139</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>44.91296150166195</v>
+        <v>46.23501707434062</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.53664850793738</v>
+        <v>21.98509038435535</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.9646393104488</v>
+        <v>25.4943314333375</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>47.49989551286158</v>
+        <v>44.89522336627645</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.27771497463842</v>
+        <v>24.09864542052589</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.33306283855541</v>
+        <v>32.97462487862406</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.09013722884764</v>
+        <v>37.67438064218495</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.5173642600819</v>
+        <v>36.73457025231856</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.73062573148978</v>
+        <v>47.00615785024048</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.10552642072081</v>
+        <v>49.30898171973809</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.63097737628711</v>
+        <v>11.74975473689802</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>38.57137366170937</v>
+        <v>39.46475376664591</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.17101167179254</v>
+        <v>45.00701208180565</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.6587589916867</v>
+        <v>40.27123554160815</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.75540953536213</v>
+        <v>45.93411638592993</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.24273561749978</v>
+        <v>49.00324901364679</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.03477474071213</v>
+        <v>23.3617765618076</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.2596329640311</v>
+        <v>37.00302874684431</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>46.33708480016149</v>
+        <v>43.68593049850301</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.7900613791462</v>
+        <v>22.73999039889188</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.85922716180183</v>
+        <v>30.9167542430047</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.67322831891612</v>
+        <v>38.20137838974474</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.16353732756772</v>
+        <v>37.57729694525874</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.54225319939832</v>
+        <v>51.83694234796087</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.28832947496716</v>
+        <v>51.92171990711167</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.06985718993408</v>
+        <v>13.15911958464264</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.75607959007715</v>
+        <v>47.85469860389759</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>59.204308259714</v>
+        <v>58.79315480568024</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>52.57364872730767</v>
+        <v>54.18673255545494</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>60.47183140865413</v>
+        <v>62.46800527279539</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>68.33205253642836</v>
+        <v>68.02899093071022</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.49459236296412</v>
+        <v>23.44846228066905</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.56723728957542</v>
+        <v>47.05920823480143</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.52755740295108</v>
+        <v>57.50241958356532</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.10790780785727</v>
+        <v>9.442534358304489</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.71999434389406</v>
+        <v>23.66382323089517</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.380924422505</v>
+        <v>33.77471536327005</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3.758203564583411</v>
+        <v>5.517248181292825</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.1199672066496</v>
+        <v>24.57281646406692</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.21287317402544</v>
+        <v>26.32005470734531</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.440624757344896</v>
+        <v>7.426333047342467</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.49026160864432</v>
+        <v>44.90171779528904</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.71561120199708</v>
+        <v>50.87974488750571</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.02390892204347</v>
+        <v>46.68870397861477</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.32410630068139</v>
+        <v>47.23899740980676</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.02170851982208</v>
+        <v>49.56135348378595</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3.090560969581727</v>
+        <v>6.23626045185474</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.26962966638871</v>
+        <v>32.11944663027391</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.81310986471338</v>
+        <v>37.99963781889734</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>11.86876685062414</v>
+        <v>11.30488393663486</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.26952863214814</v>
+        <v>29.98673801784921</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.25043844378994</v>
+        <v>31.5735296891194</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>4.959278695628811</v>
+        <v>5.532096776764373</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.08466440566812</v>
+        <v>23.0838022208609</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.06625975311611</v>
+        <v>25.65859831805575</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.779923603378727</v>
+        <v>7.370659815455273</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>32.86510650414905</v>
+        <v>34.20661780838967</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>40.99872062993553</v>
+        <v>40.1400467455805</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.36451422090505</v>
+        <v>35.47164998750228</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.1522699200216</v>
+        <v>43.36075309911053</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.69066893318427</v>
+        <v>46.58027791284481</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.811515773962569</v>
+        <v>8.373542409316379</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.77398850741287</v>
+        <v>35.71431699197035</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.44427477355062</v>
+        <v>40.86819242548354</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>11.23285244892122</v>
+        <v>9.658744562117832</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.52484700954202</v>
+        <v>28.49595338067972</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.77633202909924</v>
+        <v>36.28458748636496</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>3.055397066812532</v>
+        <v>5.468009413489003</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.3904106867578</v>
+        <v>23.83673745146533</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.64385244766815</v>
+        <v>29.17269247268389</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>4.86803065952606</v>
+        <v>6.938328636213271</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.44243991147654</v>
+        <v>37.20935800865279</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.0673597933544</v>
+        <v>50.43417242730105</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>47.49805918859724</v>
+        <v>47.42993111010614</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>56.9959494093353</v>
+        <v>60.84853995984656</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.47099610942183</v>
+        <v>64.18962641064299</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.926119767093461</v>
+        <v>7.10274418871662</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.07538127933373</v>
+        <v>44.15348305711352</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>49.83081665770266</v>
+        <v>52.13143429510911</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>10.60187269976126</v>
+        <v>14.46574983459962</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.59672403660012</v>
+        <v>16.13752593282238</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.22844597172324</v>
+        <v>17.85500207869995</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3.664483862617434</v>
+        <v>6.82332217097067</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.21498405243547</v>
+        <v>14.13075216907881</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.999911941744</v>
+        <v>14.98714495600779</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.694768759475892</v>
+        <v>13.64679496486763</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.47782726369967</v>
+        <v>21.61435933767908</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.70407368100133</v>
+        <v>23.92142033059224</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.53124927707314</v>
+        <v>20.62437612866537</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.51437656355347</v>
+        <v>23.61459920898913</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.67565446502972</v>
+        <v>25.68393897763972</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>8.986741826230983</v>
+        <v>13.67366309614402</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>14.2635985146412</v>
+        <v>14.99641959899501</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.90566683720036</v>
+        <v>19.34055183102064</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.958112987725045</v>
+        <v>10.97928698166339</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.6361620895855</v>
+        <v>22.67444801011764</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.52364816913969</v>
+        <v>29.43869940464022</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2.89080104644815</v>
+        <v>4.802921578023007</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>13.6760110949475</v>
+        <v>12.32628060904254</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.51536151722355</v>
+        <v>21.1829017923407</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>2.505466615327482</v>
+        <v>6.244794881751542</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.08117339221879</v>
+        <v>20.09061160618479</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.83565898243996</v>
+        <v>35.46094519931624</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.16563014954456</v>
+        <v>25.62267531249141</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.88309780784513</v>
+        <v>33.95524249802353</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>40.43922901553295</v>
+        <v>41.54009666546935</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>4.036263641870651</v>
+        <v>6.225449508392384</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.84336633170641</v>
+        <v>25.40512103175922</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.80739459224367</v>
+        <v>34.2951708602582</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>12.89757903909668</v>
+        <v>15.4297267844426</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.96978038481684</v>
+        <v>28.67118039282564</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.21112608714159</v>
+        <v>33.61068075478514</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>3.204643448227738</v>
+        <v>5.438383466156608</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>20.60199991120076</v>
+        <v>20.11563147787467</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.35537330956194</v>
+        <v>26.32280923610904</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>7.125769983873745</v>
+        <v>9.04457319934291</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>32.37417666370621</v>
+        <v>32.0519650357903</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.45852124039695</v>
+        <v>44.36905246859719</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.88833102504325</v>
+        <v>38.52515163550249</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.17072038108479</v>
+        <v>46.34404573284077</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>48.22841150340061</v>
+        <v>49.6589933924113</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4.963684372053716</v>
+        <v>7.395942915954393</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.39833073485293</v>
+        <v>33.8524058768074</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>44.51896794992415</v>
+        <v>46.61179098519712</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>13.23223378506569</v>
+        <v>16.07759939581867</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.82031124813887</v>
+        <v>20.47653850604542</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.00854181643084</v>
+        <v>23.44738088573704</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.881895976625707</v>
+        <v>6.578960718283298</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.51054456180349</v>
+        <v>22.82489540223014</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.36455757728589</v>
+        <v>22.23144751216959</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>14.81937984596566</v>
+        <v>15.24936989942042</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.19318692599728</v>
+        <v>36.65405577752058</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>37.75281211258427</v>
+        <v>37.43660552010388</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.2366993584658</v>
+        <v>27.35942408702899</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.65312191665708</v>
+        <v>30.48201941284056</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>37.35133227174884</v>
+        <v>35.80724603496969</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.23101636431693</v>
+        <v>13.84841722535521</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.79705376476867</v>
+        <v>28.88676384740673</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.85550502120267</v>
+        <v>33.89131231915934</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.39079872293027</v>
+        <v>8.955764398993963</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.52608644267062</v>
+        <v>22.34915404783239</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.53191142380391</v>
+        <v>34.05897872656728</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.564849284682648</v>
+        <v>5.851665776009405</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>9.504722815066643</v>
+        <v>13.85590143374375</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.46209753292623</v>
+        <v>30.22446138317135</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>4.760630761097048</v>
+        <v>8.630145513725779</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.50481675266204</v>
+        <v>24.05831493554014</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.64208080175117</v>
+        <v>38.12256511297045</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.90776597140056</v>
+        <v>23.60810573423453</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.61444015732175</v>
+        <v>35.49832395179453</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.07996558191191</v>
+        <v>47.5026553833983</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>4.896911030636982</v>
+        <v>7.223359806618159</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.27356429906347</v>
+        <v>27.39730039909184</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.65356265454906</v>
+        <v>33.90216100563709</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.47739579932456</v>
+        <v>11.71709364570727</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.71420298534662</v>
+        <v>22.66290300497952</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.51428496204983</v>
+        <v>31.83251963643268</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.108773718992712</v>
+        <v>5.520483080960972</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.78365954253699</v>
+        <v>20.15425461642123</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.49113294388035</v>
+        <v>26.0431221004619</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>6.00979974400342</v>
+        <v>8.431338563225939</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.52729834467689</v>
+        <v>32.4562069858551</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.61281355776181</v>
+        <v>38.09008586202189</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.61937571831884</v>
+        <v>40.92688498974483</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.33150929073504</v>
+        <v>45.20014155327235</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.14639498789603</v>
+        <v>53.60272771143805</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>4.324641227779267</v>
+        <v>6.423191808347031</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.5119775386187</v>
+        <v>25.39750279523139</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.97601020192745</v>
+        <v>39.57029946280156</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.49167285080569</v>
+        <v>20.06398143754981</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.92225612102476</v>
+        <v>23.92581900773747</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.07833027368962</v>
+        <v>34.5988036639457</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.639054562884308</v>
+        <v>6.979592899167841</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.62232395537573</v>
+        <v>40.2933471761106</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>41.21839275862598</v>
+        <v>42.95101375503454</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>17.36372853823273</v>
+        <v>14.87069201200688</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.10820192893087</v>
+        <v>59.66352414317679</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>58.56451520765898</v>
+        <v>60.17099369466433</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.11829320842325</v>
+        <v>45.88336132927051</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.82021426392122</v>
+        <v>46.0777234004795</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>47.49753341207271</v>
+        <v>48.55804161015975</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.15661532805396</v>
+        <v>21.80620942897393</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>23.87138149922396</v>
+        <v>23.06316185918241</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>60.06030403872129</v>
+        <v>60.52698388784675</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.89353332574181</v>
+        <v>24.3753336972728</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.42507560291303</v>
+        <v>33.41296679780923</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.56474418767213</v>
+        <v>34.81959767336132</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.467667779145319</v>
+        <v>7.08633420640837</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.74961323193927</v>
+        <v>26.92235110047102</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.8693862106617</v>
+        <v>30.86157618647841</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.64023870654972</v>
+        <v>11.56697609986553</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.06557580505714</v>
+        <v>42.8172682881321</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.4094951398464</v>
+        <v>47.16663748124029</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.15549035102282</v>
+        <v>42.13448002385491</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.45785072707147</v>
+        <v>49.57712084563047</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.59856190210741</v>
+        <v>50.11442424842954</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>20.46906946106818</v>
+        <v>21.01750914170407</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>37.5505703001741</v>
+        <v>41.93350333120693</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>45.72314622988178</v>
+        <v>46.8478027560672</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>21.24256002442281</v>
+        <v>24.95221030428596</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.90572177844687</v>
+        <v>33.6744889090714</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.09654824391831</v>
+        <v>38.08897931637996</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>6.800783952087372</v>
+        <v>6.729482003437109</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.42163090621041</v>
+        <v>29.2283106060893</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>33.34799343191572</v>
+        <v>32.85015660269815</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.30179505386978</v>
+        <v>11.2354726879759</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>47.08526408104797</v>
+        <v>48.08817365522584</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.58344455953831</v>
+        <v>58.4153707627267</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>50.72375990950434</v>
+        <v>51.9347772705637</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>57.66492977657634</v>
+        <v>59.78985221202132</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>66.13619474828701</v>
+        <v>65.88866399757391</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>19.57323367778488</v>
+        <v>18.19740718742699</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.84758485390054</v>
+        <v>47.6153209709233</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>55.02935206371623</v>
+        <v>56.0049269914409</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>9.939854064578604</v>
+        <v>9.63511386577774</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>21.16575816050453</v>
+        <v>22.93149762878915</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.71425077953074</v>
+        <v>31.47614482452549</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>3.920172383282239</v>
+        <v>5.513620954657441</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.67245592305157</v>
+        <v>24.9931178205801</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>24.32020490244233</v>
+        <v>25.50400440862202</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>5.69273601092247</v>
+        <v>8.049684870774577</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.46467401047947</v>
+        <v>40.56825873060694</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>45.23970906268033</v>
+        <v>45.74910443843687</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.13012588115851</v>
+        <v>44.12537915933497</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>45.26777570904238</v>
+        <v>49.64093083612742</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>44.67371193563187</v>
+        <v>47.05877974685186</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1.572830715764418</v>
+        <v>6.119121307718292</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.79188704416328</v>
+        <v>31.07694606602914</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.91120546224775</v>
+        <v>35.5042277325371</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>12.5201752249968</v>
+        <v>12.10430629288065</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.27953184561305</v>
+        <v>31.38049692394443</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.35205684220701</v>
+        <v>30.57345752565329</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.348794341566915</v>
+        <v>6.043115275173449</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>21.18861531036416</v>
+        <v>22.77660155059019</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.41728947412638</v>
+        <v>27.16730260366033</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.236800854452973</v>
+        <v>8.480243362112553</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.18454036484932</v>
+        <v>38.22137305754321</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>44.9009163170945</v>
+        <v>47.23969235368909</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.69188562002518</v>
+        <v>38.64160972993356</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.14457401160442</v>
+        <v>46.35074629236154</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>48.27091101835342</v>
+        <v>48.77939073722642</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>7.464560813164308</v>
+        <v>8.395723872936799</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.63072843145237</v>
+        <v>37.98351583744667</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>41.54778226303908</v>
+        <v>44.0397155150419</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>11.13261476386134</v>
+        <v>10.49962567192471</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.053454322103</v>
+        <v>30.79088415208209</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.01502710552808</v>
+        <v>37.97037265814262</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>3.594853796152215</v>
+        <v>5.353556323914461</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>24.6277159045072</v>
+        <v>23.31154280151056</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.38515335523458</v>
+        <v>26.61415840232221</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>5.231672506029444</v>
+        <v>6.846080760484323</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>37.79556938972777</v>
+        <v>37.51351287580705</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>50.11580882753758</v>
+        <v>49.18853139898643</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>45.60629916709976</v>
+        <v>47.69587558609486</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.25025115974857</v>
+        <v>56.64951896337404</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>60.92783232735562</v>
+        <v>62.25236470097653</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>4.781299998446901</v>
+        <v>7.599192020553161</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>40.01005356983563</v>
+        <v>39.71975212077894</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.80101825810662</v>
+        <v>52.22706767913016</v>
       </c>
     </row>
   </sheetData>
